--- a/inputs/LCBKK018.xlsx
+++ b/inputs/LCBKK018.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtsoonthornran\Downloads\Publications\1stPaper\CodeFig\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
-    <sheet name="รายงานระดับน้ำ" sheetId="1" r:id="rId4"/>
-    <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
+    <sheet name="รายงานระดับน้ำ" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>รายงานระดับน้ำ</t>
   </si>
@@ -618,23 +622,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -645,14 +641,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -666,33 +665,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -982,2202 +990,2174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>24.48</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>23.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>23.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>23.48</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>23.38</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>23.44</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>23.89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>24.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>24.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>24.14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>24.08</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>24.17</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>24.11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>24.04</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>24.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>24.57</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>24.37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>24.32</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>24.73</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>24.86</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>24.73</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>24.94</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>25.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>25.29</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>25.41</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>25.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>25.54</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>25.39</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>25.25</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>25.34</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>25.42</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>25.99</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="6">
         <v>26.13</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="6">
         <v>26.29</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="6">
         <v>25.42</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="6">
         <v>25.12</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="6">
         <v>25.08</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="6">
         <v>25.22</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="6">
         <v>25.74</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="6">
         <v>25.68</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="6">
         <v>25.77</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="6">
         <v>26.51</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="6">
         <v>26.71</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="6">
         <v>26.78</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>45</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="6">
         <v>26.79</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>46</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="6">
         <v>25.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="6">
         <v>25.68</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="6">
         <v>25.99</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="6">
         <v>25.98</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="6">
         <v>26.29</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>51</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="6">
         <v>26.13</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>52</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="6">
         <v>26.11</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>53</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="6">
         <v>26.03</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>54</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="6">
         <v>25.97</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>55</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="6">
         <v>25.9</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="6">
         <v>25.86</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="6">
         <v>25.89</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>58</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="6">
         <v>25.94</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="6">
         <v>25.9</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="6">
         <v>25.99</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="6">
         <v>25.07</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
         <v>63</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="6">
         <v>24.88</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
         <v>64</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="6">
         <v>24.8</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="6">
         <v>24.87</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="6">
         <v>24.77</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
         <v>67</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="6">
         <v>24.92</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
         <v>68</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="6">
         <v>24.9</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
         <v>69</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="6">
         <v>24.82</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>70</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="6">
         <v>24.74</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
         <v>71</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="6">
         <v>24.65</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>72</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="6">
         <v>24.53</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
         <v>73</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="6">
         <v>24.6</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
         <v>74</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="6">
         <v>24.67</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
         <v>75</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="6">
         <v>24.52</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
         <v>76</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="6">
         <v>24.78</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
         <v>77</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="6">
         <v>24.92</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
         <v>78</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="6">
         <v>24.97</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
         <v>79</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="6">
         <v>24.59</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
         <v>80</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="6">
         <v>24.37</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
         <v>81</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="6">
         <v>24.35</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
         <v>82</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="6">
         <v>24.61</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
         <v>83</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="6">
         <v>24.79</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
         <v>84</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="6">
         <v>24.8</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
         <v>85</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="6">
         <v>24.82</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
         <v>86</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="6">
         <v>24.71</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
         <v>87</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="6">
         <v>24.68</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
         <v>88</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="6">
         <v>24.6</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
         <v>89</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="6">
         <v>24.51</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
         <v>90</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="6">
         <v>24.4</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
         <v>91</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="6">
         <v>24.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
         <v>92</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="6">
         <v>24.11</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
         <v>93</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="6">
         <v>24.11</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
         <v>94</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="6">
         <v>24.22</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
         <v>95</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="6">
         <v>24.29</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
         <v>96</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="6">
         <v>24.28</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
         <v>97</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="6">
         <v>24.15</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
         <v>98</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="6">
         <v>24.2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
         <v>99</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="6">
         <v>24.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
         <v>100</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="6">
         <v>24.14</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
         <v>101</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="6">
         <v>24.24</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
         <v>102</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="6">
         <v>24.1</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
         <v>103</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="6">
         <v>24.34</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
         <v>104</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="6">
         <v>24.05</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
         <v>105</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="6">
         <v>23.99</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
         <v>106</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="6">
         <v>23.97</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
         <v>107</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="6">
         <v>23.81</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
         <v>108</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="6">
         <v>23.74</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
         <v>109</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="6">
         <v>23.81</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
         <v>110</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="6">
         <v>23.69</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
         <v>111</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="6">
         <v>23.64</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
         <v>112</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="6">
         <v>23.81</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
         <v>113</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="6">
         <v>23.43</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
         <v>114</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="6">
         <v>23.32</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
         <v>115</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="6">
         <v>23.75</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
         <v>116</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="6">
         <v>23.13</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
         <v>117</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="6">
         <v>22.93</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
         <v>118</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="6">
         <v>22.85</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
         <v>119</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="6">
         <v>22.75</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
         <v>120</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="6">
         <v>22.64</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
         <v>121</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="6">
         <v>22.42</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
         <v>122</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="6">
         <v>22.39</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
         <v>123</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="6">
         <v>22.27</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
         <v>124</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="6">
         <v>22.08</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
         <v>125</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="6">
         <v>22.03</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
         <v>126</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="6">
         <v>21.88</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
         <v>127</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="6">
         <v>21.74</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
         <v>128</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="6">
         <v>21.67</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
         <v>129</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="6">
         <v>21.6</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
         <v>130</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="6">
         <v>22.65</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
         <v>131</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="6">
         <v>22.64</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
         <v>132</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="6">
         <v>21.25</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
         <v>133</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="6">
         <v>21.13</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
         <v>134</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="6">
         <v>20.71</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
         <v>135</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="6">
         <v>20.79</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
         <v>136</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="6">
         <v>20.58</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
         <v>137</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="6">
         <v>20.5</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
         <v>138</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="6">
         <v>20.64</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
         <v>139</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="6">
         <v>20.52</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
         <v>140</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="3">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="4">
+      <c r="C144" s="6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
         <v>141</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="4">
+      <c r="C145" s="6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
         <v>142</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="6">
         <v>20.11</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
         <v>143</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="6">
         <v>20.14</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
         <v>144</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="4">
+      <c r="C148" s="6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
         <v>145</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="6">
         <v>20.13</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
         <v>146</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="3">
-        <v>20.24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="4">
+      <c r="C150" s="6">
+        <v>20.239999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
         <v>147</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="6">
         <v>19.57</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
         <v>148</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C152" s="3">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="4">
+      <c r="C152" s="6">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
         <v>149</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="6">
         <v>19.66</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
         <v>150</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="6">
         <v>19.53</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
         <v>151</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C155" s="3">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="4">
+      <c r="C155" s="6">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
         <v>152</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="6">
         <v>19.55</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
         <v>153</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="6">
         <v>19.2</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
         <v>154</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="6">
         <v>19.12</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
         <v>155</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C159" s="3">
-        <v>19.19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="4">
+      <c r="C159" s="6">
+        <v>19.190000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
         <v>156</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="6">
         <v>19.32</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
         <v>157</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C161" s="3">
-        <v>19.42</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="4">
+      <c r="C161" s="6">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
         <v>158</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="6">
         <v>19.38</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
         <v>159</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C163" s="3">
-        <v>17.58</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="4">
+      <c r="C163" s="6">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
         <v>160</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="6">
         <v>17.63</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
         <v>161</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="6">
         <v>17.72</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
         <v>162</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="6">
         <v>17.8</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
         <v>163</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C167" s="3">
-        <v>17.74</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="4">
+      <c r="C167" s="6">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
         <v>164</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="6">
         <v>17.66</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
         <v>165</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="6">
         <v>17.79</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
         <v>166</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="6">
         <v>17.32</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
         <v>167</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="6">
         <v>16.97</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
         <v>168</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C172" s="3">
-        <v>17.06</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="4">
+      <c r="C172" s="6">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
         <v>169</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C173" s="3">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="4">
+      <c r="C173" s="6">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
         <v>170</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="6">
         <v>16.28</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
         <v>171</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="6">
         <v>15.59</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
         <v>172</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="6">
         <v>15.83</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
         <v>173</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="6">
         <v>15.46</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
         <v>174</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="6">
         <v>15.63</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
         <v>175</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="6">
         <v>15.87</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
         <v>176</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C180" s="3">
-        <v>16.26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="4">
+      <c r="C180" s="6">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
         <v>177</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="6">
         <v>16.47</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
         <v>178</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C182" s="3">
-        <v>16.17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="4">
+      <c r="C182" s="6">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
         <v>179</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="6">
         <v>17.23</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
         <v>180</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="6">
         <v>16.27</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
         <v>181</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="6">
         <v>16.63</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
         <v>182</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="6">
         <v>15.44</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
         <v>183</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="6">
         <v>14.4</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
         <v>184</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="6">
         <v>15.25</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
         <v>185</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="6">
         <v>15.53</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
         <v>186</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="6">
         <v>15.5</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
         <v>187</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="6">
         <v>15.38</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="3">
+      <c r="B192" s="5"/>
+      <c r="C192" s="2">
         <v>14.4</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="4" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="3">
+      <c r="B193" s="5"/>
+      <c r="C193" s="2">
         <v>26.79</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="4" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="3">
+      <c r="B194" s="5"/>
+      <c r="C194" s="2">
         <v>22.61</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="4" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="3">
+      <c r="B195" s="5"/>
+      <c r="C195" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B196" s="4"/>
-      <c r="C196" s="3" t="s">
+      <c r="B196" s="5"/>
+      <c r="C196" s="2" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="8">
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A192:B192"/>
     <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>